--- a/risk/risikodiagram.xlsx
+++ b/risk/risikodiagram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dashboard\terminoppgave\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dashboard\terminoppgave\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EA4E99-A22C-4553-92AE-E53FEE12FDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7594A231-4979-4BC9-97DB-DE948DC9904E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A95F7586-F3C1-4EE9-9421-CE44EA819227}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{A95F7586-F3C1-4EE9-9421-CE44EA819227}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Ikke sansynlig</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Søler vann på server</t>
+  </si>
+  <si>
+    <t>responsiv, detektiv , prevantiv</t>
   </si>
 </sst>
 </file>
@@ -193,14 +196,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0929F94B-020B-469F-B623-0BA5CAFE82FB}">
   <dimension ref="B1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="C469" sqref="C469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,13 +536,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -614,14 +617,14 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -717,7 +720,9 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>

--- a/risk/risikodiagram.xlsx
+++ b/risk/risikodiagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dashboard\terminoppgave\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7594A231-4979-4BC9-97DB-DE948DC9904E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EAB77C-AB9A-4DA0-9525-85570575E26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{A95F7586-F3C1-4EE9-9421-CE44EA819227}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A95F7586-F3C1-4EE9-9421-CE44EA819227}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
   <si>
     <t>Ikke sansynlig</t>
   </si>
@@ -51,9 +51,6 @@
     <t>SQL injection</t>
   </si>
   <si>
-    <t>Database krasjer</t>
-  </si>
-  <si>
     <t>Prøve å koble på databasen</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Gjorde slik at man ikke kan skrive spesefike tegn, gjorde også slik at tegnene som skrives inn fungerer med sql</t>
   </si>
   <si>
-    <t>Passordene er hashet slik at hvis det blir en data breach så får man ikke se passordet</t>
-  </si>
-  <si>
     <t>Koble til database</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>lagt til brannmur på sql serveren slik at bare apache2-serveren kommer seg gjennom på port 3306 (sql port)</t>
   </si>
   <si>
-    <t>Antagelse: dette er på et server rom som er låst</t>
-  </si>
-  <si>
     <t>innbrudd</t>
   </si>
   <si>
@@ -105,17 +96,257 @@
     <t>Har låser og vakter i området slik at det blir vanskeligere å bryte seg inn, kan koste mye for vakter</t>
   </si>
   <si>
-    <t>Søler vann på server</t>
-  </si>
-  <si>
-    <t>responsiv, detektiv , prevantiv</t>
+    <t>Prevantive:</t>
+  </si>
+  <si>
+    <t>Detektive:</t>
+  </si>
+  <si>
+    <t>Responsive:</t>
+  </si>
+  <si>
+    <t>Prevantive, detektive og responsive midler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL injection, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http port exploit, </t>
+  </si>
+  <si>
+    <t>armed robbery på database</t>
+  </si>
+  <si>
+    <t>Passordene er hashet slik at hvis det blir en data breach så får man ikke se passordet, veldig dyr bot hvis det skjer</t>
+  </si>
+  <si>
+    <t>dårlig nett</t>
+  </si>
+  <si>
+    <t>Database krasjer, for mye trafikk, noen kutter strømmen</t>
+  </si>
+  <si>
+    <t>brann, dårlig nett, Søler vann på server</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ny kar på jobb skrur av maskin</t>
+  </si>
+  <si>
+    <t>ny kar laster ned 200gig warzone på weserver nettet</t>
+  </si>
+  <si>
+    <t>logg, tickets, vakter, kamera</t>
+  </si>
+  <si>
+    <t>administrator, support, papir, anti malware, vakter</t>
+  </si>
+  <si>
+    <t>Årsak</t>
+  </si>
+  <si>
+    <t>Mister lås</t>
+  </si>
+  <si>
+    <t>nøkkel låsen til db</t>
+  </si>
+  <si>
+    <t>var ikke forsiktig nok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bots </t>
+  </si>
+  <si>
+    <t>folk vil ha følgere og likes</t>
+  </si>
+  <si>
+    <t>warzone på nett</t>
+  </si>
+  <si>
+    <t>dårlig ansatt</t>
+  </si>
+  <si>
+    <t>skrur av maskin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input control, bind param, lukket nettverk, firewall, vakter, ansetter </t>
+  </si>
+  <si>
+    <t>ukjent prøver å koble til db</t>
+  </si>
+  <si>
+    <t>sjele informasjon</t>
+  </si>
+  <si>
+    <t>stjele informasjon / komponenter</t>
+  </si>
+  <si>
+    <t>dårlig satt opp, dårlige vaner</t>
+  </si>
+  <si>
+    <t>dårlig provider</t>
+  </si>
+  <si>
+    <t>søler vann på server</t>
+  </si>
+  <si>
+    <t>data breach</t>
+  </si>
+  <si>
+    <t>dårlig sikkerhet, både web og fysisk</t>
+  </si>
+  <si>
+    <t>http port exploit</t>
+  </si>
+  <si>
+    <t>vil koble seg til web server</t>
+  </si>
+  <si>
+    <t>sql injection</t>
+  </si>
+  <si>
+    <t>stjele info, få rettigheter, slette info</t>
+  </si>
+  <si>
+    <t>db krasjer</t>
+  </si>
+  <si>
+    <t>dårlige komponenter, strøm, lokale</t>
+  </si>
+  <si>
+    <t>for mye trafikk</t>
+  </si>
+  <si>
+    <t>for dårlige komponenter på webserver</t>
+  </si>
+  <si>
+    <t>noen kutter strømmen</t>
+  </si>
+  <si>
+    <t>vil skade selvskapet, bryte seg inn</t>
+  </si>
+  <si>
+    <t>Virkning</t>
+  </si>
+  <si>
+    <t>må til sme</t>
+  </si>
+  <si>
+    <t>mindre motivsjon for ordentlige influencers</t>
+  </si>
+  <si>
+    <t>tregt nett, gjør at færre besøker siden</t>
+  </si>
+  <si>
+    <t>mindre besøk</t>
+  </si>
+  <si>
+    <t>Hvis den ukjente klarer, koster det mye (20 mil, eller 5%)</t>
+  </si>
+  <si>
+    <t>armed robbery</t>
+  </si>
+  <si>
+    <t>kan miste db, 20 mil eller 5%</t>
+  </si>
+  <si>
+    <t>mister mye utstyr, mindre besøk, må forflytte</t>
+  </si>
+  <si>
+    <t>kan ødelegge maskiner, mindre besøk</t>
+  </si>
+  <si>
+    <t>kan koste 20 mil eller 5%, mindre troverdig</t>
+  </si>
+  <si>
+    <t>kan skape problemer for webserver</t>
+  </si>
+  <si>
+    <t>kan miste mye info, 20mil eller 5% og  mindre troverdig</t>
+  </si>
+  <si>
+    <t>mindre besøk, tregere maskin</t>
+  </si>
+  <si>
+    <t>oppfølgning</t>
+  </si>
+  <si>
+    <t>mindre besøk, kan skade maskinen</t>
+  </si>
+  <si>
+    <t>mister tilgang til database</t>
+  </si>
+  <si>
+    <t>må lage program, eller ansette for å slette de</t>
+  </si>
+  <si>
+    <t>sparke den ansatte, med mindre god grunn</t>
+  </si>
+  <si>
+    <t>rapportere</t>
+  </si>
+  <si>
+    <t>ringe poltiet</t>
+  </si>
+  <si>
+    <t>ringe brannvesenet, ambulansen og poltiet.</t>
+  </si>
+  <si>
+    <t>bytte provider</t>
+  </si>
+  <si>
+    <t>ctrl + Z -&gt; ctrl + s, skru av maskin asap, la tørke</t>
+  </si>
+  <si>
+    <t>blokke ip når sett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skru av webserver og feilsøke </t>
+  </si>
+  <si>
+    <t>skru på igjen, feilsøke</t>
+  </si>
+  <si>
+    <t>må kjøpe flere komponenter</t>
+  </si>
+  <si>
+    <t>skru på backup strøm</t>
+  </si>
+  <si>
+    <t>strømmen</t>
+  </si>
+  <si>
+    <t>Backup strøm</t>
+  </si>
+  <si>
+    <t>ansatte</t>
+  </si>
+  <si>
+    <t>Ha en flink ansetter</t>
+  </si>
+  <si>
+    <t>Strømmen går</t>
+  </si>
+  <si>
+    <t>Ha backup</t>
+  </si>
+  <si>
+    <t>For mye trafikk</t>
+  </si>
+  <si>
+    <t>Passe på hvor mye trafikk, og justere med engang trend starter</t>
+  </si>
+  <si>
+    <t>Antagelse: dette er på et server rom som er låst. Lokalet er i nærområdet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +357,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -191,16 +430,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -519,30 +765,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0929F94B-020B-469F-B623-0BA5CAFE82FB}">
-  <dimension ref="B1:G25"/>
+  <dimension ref="B1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="C469" sqref="C469"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" customWidth="1"/>
+    <col min="6" max="6" width="55" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="C1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -550,7 +799,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -562,34 +811,46 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -597,15 +858,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -618,7 +877,7 @@
     </row>
     <row r="14" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -626,130 +885,423 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="C41" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C55" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="C56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="8">
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="B38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
